--- a/public/excel/formato_productos.xlsx
+++ b/public/excel/formato_productos.xlsx
@@ -309,6 +309,47 @@
     </comment>
   </commentList>
 </comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>CODIGO INTERNO</t>
+  </si>
+  <si>
+    <t>CODIGO DE BARRAS</t>
+  </si>
+  <si>
+    <t>NOMBRE DEL PRODUCTO</t>
+  </si>
+  <si>
+    <t>REFERENCIA</t>
+  </si>
+  <si>
+    <t>EMPRESA NIT</t>
+  </si>
+  <si>
+    <t>PROVEEDOR</t>
+  </si>
+  <si>
+    <t>CATEGORIA</t>
+  </si>
+  <si>
+    <t>SUBCATEGORIA</t>
+  </si>
+  <si>
+    <t>GRUPO</t>
+  </si>
+  <si>
+    <t>SUBGRUPO</t>
+  </si>
+  <si>
+    <t>STOCK</t>
+  </si>
+  <si>
+    <t>COSTO</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -671,37 +712,61 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
